--- a/class.ver0.1.xlsx
+++ b/class.ver0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitcamp_lms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\작업공간\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDDE235-561F-4DDC-A212-E07417112E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D534F7B7-7C43-49F7-AFCD-7C4DA9699716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{1EA4F7EC-4EFC-4293-919B-2A8068112ADD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>교육센터</t>
   </si>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>Dao(PasswordFindSelectOne, PasswordFindUpdate)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지(혜진)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainController.java, Main.jsp</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -628,16 +640,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -958,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AE135F-F99B-44B8-AEB8-0B729E547925}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -983,516 +995,533 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+    <row r="6" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="12" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+    <row r="17" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="14" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="14" t="s">
-        <v>29</v>
+      <c r="B20" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="14" t="s">
-        <v>28</v>
+      <c r="B22" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="14" t="s">
-        <v>27</v>
+      <c r="B24" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
-      <c r="B26" s="14" t="s">
-        <v>37</v>
+      <c r="B26" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="14" t="s">
-        <v>38</v>
+      <c r="B28" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+    <row r="32" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="14" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
-      <c r="B35" s="14" t="s">
-        <v>46</v>
+      <c r="B35" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+    <row r="39" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="14" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+    <row r="44" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="1:3" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="14" t="s">
-        <v>48</v>
+      <c r="B47" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+    <row r="51" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-    </row>
-    <row r="50" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="14" t="s">
-        <v>53</v>
+      <c r="B54" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
-      <c r="B56" s="14" t="s">
-        <v>54</v>
+      <c r="B56" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+    <row r="60" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-    </row>
-    <row r="59" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="14" t="s">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="5" t="s">
+    <row r="66" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="5" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A58:C58"/>
+  <mergeCells count="11">
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/class.ver0.1.xlsx
+++ b/class.ver0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\작업공간\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D534F7B7-7C43-49F7-AFCD-7C4DA9699716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D92D84-E387-4245-9433-39FD1C40D78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{1EA4F7EC-4EFC-4293-919B-2A8068112ADD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>교육센터</t>
   </si>
@@ -87,22 +87,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>로그인</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>HireController.java, Hire.jsp</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -372,6 +360,22 @@
   </si>
   <si>
     <t>MainController.java, Main.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입(진우)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인(진우)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기(진우)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dao(MainCurriculumSelect)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -643,10 +647,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
@@ -970,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AE135F-F99B-44B8-AEB8-0B729E547925}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -991,537 +995,544 @@
         <v>11</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="5" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C25" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
-      <c r="B26" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C27" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="11" t="s">
-        <v>37</v>
-      </c>
+      <c r="B28" s="7"/>
       <c r="C28" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="C29" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
-      <c r="B30" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="5" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
+      <c r="B31" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="C31" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
+      <c r="B34" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="C34" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
-      <c r="B35" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="B35" s="7"/>
       <c r="C35" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
+      <c r="B36" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="C36" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
-      <c r="B37" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="B37" s="7"/>
       <c r="C37" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
+      <c r="B38" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
+      <c r="B41" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="C41" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
-      <c r="B42" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="B42" s="7"/>
       <c r="C42" s="5" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
+      <c r="B43" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C43" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-    </row>
-    <row r="45" spans="1:3" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:3" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
+      <c r="B46" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="C46" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="B47" s="7"/>
       <c r="C47" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
+      <c r="B48" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="C48" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
-      <c r="B49" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="B49" s="7"/>
       <c r="C49" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C50" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-    </row>
-    <row r="52" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
+      <c r="B53" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="C53" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="B54" s="7"/>
       <c r="C54" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
+      <c r="B55" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="C55" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
-      <c r="B56" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="B56" s="7"/>
       <c r="C56" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
+      <c r="B57" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="C57" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="7"/>
+      <c r="C58" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
+      <c r="B59" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="C59" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-    </row>
-    <row r="61" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
+      <c r="B62" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="C62" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B63" s="7"/>
       <c r="C63" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
+      <c r="B64" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="C64" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="B65" s="7"/>
       <c r="C65" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C66" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
